--- a/data/trans_orig/P14B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED1FF73-1334-4F52-84EC-8BE42D5AB225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48463CB3-26ED-4658-8EB4-BE002254F06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40CD68A5-05E6-4FD6-BAF4-DD7ECBF6AB50}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A269CD98-1ABD-438C-8814-532B68844A12}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,28 +76,28 @@
     <t>75,11%</t>
   </si>
   <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>74,49%</t>
   </si>
   <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>24,89%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>66,79%</t>
   </si>
   <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>59,08%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>63,51%</t>
   </si>
   <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -226,55 +226,55 @@
     <t>72,08%</t>
   </si>
   <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -286,109 +286,109 @@
     <t>80,83%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>80,34%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>67,09%</t>
   </si>
   <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
   <si>
     <t>71,5%</t>
   </si>
   <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
   </si>
   <si>
     <t>32,91%</t>
   </si>
   <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>63,59%</t>
@@ -403,19 +403,19 @@
     <t>40,22%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>36,41%</t>
@@ -430,73 +430,73 @@
     <t>59,78%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
@@ -505,217 +505,217 @@
     <t>71,1%</t>
   </si>
   <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>64,17%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>35,83%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
   </si>
   <si>
     <t>59,56%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>48,9%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>55,58%</t>
   </si>
   <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
   </si>
   <si>
     <t>51,1%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>44,42%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>63,14%</t>
   </si>
   <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>62,85%</t>
   </si>
   <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
   </si>
   <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989421DF-6335-42FF-921E-7B0A4A9B90E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D5E8A-0B0D-48B3-82A7-F15B7D313F47}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1794,7 +1794,7 @@
         <v>73</v>
       </c>
       <c r="N14" s="7">
-        <v>77290</v>
+        <v>77291</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>76</v>
@@ -1845,7 +1845,7 @@
         <v>257</v>
       </c>
       <c r="N15" s="7">
-        <v>274675</v>
+        <v>274676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1878,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE82B7C-A4AE-4A37-BC9D-477B3E84C4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5847452-08B1-4D7F-93E2-D852346C52E0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2629,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0359164-F9D8-4B3F-88E0-A1771009BFD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADA487D-DA81-4D9E-B70A-A834AD3705D1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B10-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48463CB3-26ED-4658-8EB4-BE002254F06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF0D302D-C48F-4B7B-BADE-4521C810AEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A269CD98-1ABD-438C-8814-532B68844A12}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{857E06DF-F93A-4623-B61D-81D9D9D79E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -76,28 +76,28 @@
     <t>75,11%</t>
   </si>
   <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>74,49%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>24,89%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,364 +139,364 @@
     <t>66,79%</t>
   </si>
   <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>59,08%</t>
   </si>
   <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo trastorno cardíaco le limita en 2015 (Tasa respuesta: 4,05%)</t>
+    <t>Población cuyo trastorno cardíaco le limita en 2016 (Tasa respuesta: 4,05%)</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>80,34%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>67,09%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
   <si>
     <t>71,5%</t>
   </si>
   <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>32,91%</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>63,59%</t>
   </si>
   <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>40,22%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
   </si>
   <si>
     <t>36,41%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>59,78%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
@@ -1127,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D5E8A-0B0D-48B3-82A7-F15B7D313F47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691617A6-FCE7-43A1-BCCB-F682C5262810}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5847452-08B1-4D7F-93E2-D852346C52E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942F3FBE-C4F2-410E-8AFB-592B3F8931E2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2629,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADA487D-DA81-4D9E-B70A-A834AD3705D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37852F8-E297-4E6D-8605-E6F6D7D3972D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
